--- a/biology/Botanique/Bois_pasner/Bois_pasner.xlsx
+++ b/biology/Botanique/Bois_pasner/Bois_pasner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zanthoxylum paniculatum
 Le bois pasner (Zanthoxylum paniculatum) est une espèce florale de la famille des Rutaceae endémique de Rodrigues, dans l'océan Indien. Elle est en danger critique d'extinction puisque l'on ne fait plus état que deux de spécimens sur l'île et donc dans le monde.
@@ -512,7 +524,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois pasner aurait des vertus calmantes.
 </t>
